--- a/SF_3_2_Family_dissolution_children.xlsx
+++ b/SF_3_2_Family_dissolution_children.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <workbookPr checkCompatibility="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vilma/your-own-project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="105" windowWidth="10140" windowHeight="12165"/>
+    <workbookView xWindow="9100" yWindow="460" windowWidth="15540" windowHeight="12160"/>
   </bookViews>
   <sheets>
     <sheet name="Table SF3.2.A" sheetId="8" r:id="rId1"/>
@@ -21,11 +26,16 @@
     <definedName name="Country_Mean">[1]!Country_Mean</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="118">
   <si>
     <t>Total</t>
   </si>
@@ -151,9 +161,6 @@
   </si>
   <si>
     <t>Denmark</t>
-  </si>
-  <si>
-    <t>Ireland</t>
   </si>
   <si>
     <t>Croatia</t>
@@ -838,7 +845,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -847,10 +854,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,7 +884,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,6 +1044,15 @@
     <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1058,31 +1074,22 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1105,11 +1112,11 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1146,7 +1153,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1163,10 +1170,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7445796086387494E-3"/>
-          <c:y val="0.15403329778907338"/>
-          <c:w val="0.98906927548920154"/>
-          <c:h val="0.84098650145001475"/>
+          <c:x val="0.00874457960863875"/>
+          <c:y val="0.154033297789073"/>
+          <c:w val="0.989069275489201"/>
+          <c:h val="0.840986501450015"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1203,17 +1210,6 @@
             <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -1435,7 +1431,7 @@
                   <c:v>6.35</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.2399999999999993</c:v>
+                  <c:v>6.24</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6.09</c:v>
@@ -1450,7 +1446,7 @@
                   <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2099999999999995</c:v>
+                  <c:v>3.21</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.86</c:v>
@@ -1469,8 +1465,8 @@
         </c:dLbls>
         <c:gapWidth val="60"/>
         <c:overlap val="100"/>
-        <c:axId val="101267712"/>
-        <c:axId val="101380480"/>
+        <c:axId val="-2069098144"/>
+        <c:axId val="-2089614144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1685,13 +1681,13 @@
                   <c:v>5.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4899999999999998</c:v>
+                  <c:v>2.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3400000000000007</c:v>
+                  <c:v>7.340000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8000000000000007</c:v>
+                  <c:v>6.800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.03</c:v>
@@ -1721,22 +1717,22 @@
                   <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>1.13</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4.97</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.6592000000000007</c:v>
+                  <c:v>3.659200000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>2.45</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.6199999999999999</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.89</c:v>
@@ -1757,13 +1753,13 @@
                   <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.5099999999999998</c:v>
+                  <c:v>2.51</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>2.03</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.93</c:v>
@@ -1783,11 +1779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101267712"/>
-        <c:axId val="101380480"/>
+        <c:axId val="-2069098144"/>
+        <c:axId val="-2089614144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101267712"/>
+        <c:axId val="-2069098144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,7 +1834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101380480"/>
+        <c:crossAx val="-2089614144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1847,7 +1843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101380480"/>
+        <c:axId val="-2089614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,8 +1891,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.7734218785457684E-4"/>
-              <c:y val="7.9356454488990397E-2"/>
+              <c:x val="0.000577342187854577"/>
+              <c:y val="0.0793564544889904"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1936,7 +1932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101267712"/>
+        <c:crossAx val="-2069098144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1959,10 +1955,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.0538293235368415E-2"/>
-          <c:y val="0"/>
+          <c:x val="0.0405382932353684"/>
+          <c:y val="0.0"/>
           <c:w val="0.942237350836855"/>
-          <c:h val="6.1888160926449082E-2"/>
+          <c:h val="0.0618881609264491"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2044,7 +2040,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000078" r="0.75000000000000078" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.750000000000001" r="0.750000000000001" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2053,7 +2049,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2070,10 +2066,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7445796086387494E-3"/>
-          <c:y val="0.15403329778907338"/>
-          <c:w val="0.98906927548920154"/>
-          <c:h val="0.84098650145001475"/>
+          <c:x val="0.00874457960863875"/>
+          <c:y val="0.154033297789073"/>
+          <c:w val="0.989069275489201"/>
+          <c:h val="0.840986501450015"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2241,7 +2237,7 @@
                   <c:v>6.35</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2399999999999993</c:v>
+                  <c:v>6.24</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5.16</c:v>
@@ -2250,7 +2246,7 @@
                   <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2099999999999995</c:v>
+                  <c:v>3.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2324,22 +2320,22 @@
                   <c:v>4.76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.8000000000000007</c:v>
+                  <c:v>9.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0599999999999996</c:v>
+                  <c:v>5.06</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>9.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6.766</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1399999999999997</c:v>
+                  <c:v>4.14</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>6.26</c:v>
@@ -2437,10 +2433,10 @@
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.210000000000001</c:v>
+                  <c:v>10.21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3199999999999998</c:v>
+                  <c:v>2.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5.35</c:v>
@@ -2449,7 +2445,7 @@
                   <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.6</c:v>
@@ -2606,7 +2602,7 @@
                   <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0399999999999991</c:v>
+                  <c:v>8.04</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3.51</c:v>
@@ -2642,11 +2638,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124166912"/>
-        <c:axId val="124168832"/>
+        <c:axId val="-2072784608"/>
+        <c:axId val="-2072618336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124166912"/>
+        <c:axId val="-2072784608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,7 +2686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124168832"/>
+        <c:crossAx val="-2072618336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2699,7 +2695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124168832"/>
+        <c:axId val="-2072618336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,8 +2731,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.7734218785457684E-4"/>
-              <c:y val="7.9356454488990397E-2"/>
+              <c:x val="0.000577342187854577"/>
+              <c:y val="0.0793564544889904"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2769,7 +2765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124166912"/>
+        <c:crossAx val="-2072784608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2792,10 +2788,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.0538293235368415E-2"/>
-          <c:y val="0"/>
-          <c:w val="0.95162280082037054"/>
-          <c:h val="6.9090873074827905E-2"/>
+          <c:x val="0.0405382932353684"/>
+          <c:y val="0.0"/>
+          <c:w val="0.951622800820371"/>
+          <c:h val="0.0690908730748279"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2860,7 +2856,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000078" r="0.75000000000000078" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.750000000000001" r="0.750000000000001" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2999,7 +2995,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3034,7 +3030,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3243,97 +3239,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <col min="3" max="9" width="8.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="13.83203125" style="3" customWidth="1"/>
+    <col min="3" max="9" width="8.1640625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-    </row>
-    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="E4" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="F4" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="G4" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I4" s="73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="9" t="s">
         <v>4</v>
@@ -3368,7 +3364,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
         <v>6</v>
@@ -3403,7 +3399,7 @@
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="9" t="s">
         <v>39</v>
@@ -3438,7 +3434,7 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>8</v>
@@ -3473,7 +3469,7 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="9" t="s">
         <v>40</v>
@@ -3508,7 +3504,7 @@
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>9</v>
@@ -3543,7 +3539,7 @@
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="9" t="s">
         <v>41</v>
@@ -3578,7 +3574,7 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>10</v>
@@ -3613,7 +3609,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="9" t="s">
         <v>11</v>
@@ -3648,7 +3644,7 @@
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
         <v>12</v>
@@ -3683,7 +3679,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="9" t="s">
         <v>13</v>
@@ -3718,7 +3714,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
         <v>14</v>
@@ -3753,7 +3749,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="9" t="s">
         <v>15</v>
@@ -3788,7 +3784,7 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
         <v>16</v>
@@ -3823,31 +3819,31 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
-      <c r="B20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>5</v>
+      <c r="B20" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="22">
+        <v>2.9136635485355007</v>
+      </c>
+      <c r="D20" s="22">
+        <v>23.155957675203187</v>
+      </c>
+      <c r="E20" s="22">
+        <v>19.061493635945407</v>
+      </c>
+      <c r="F20" s="22">
+        <v>13.441190001533506</v>
+      </c>
+      <c r="G20" s="22">
+        <v>9.0860297500383389</v>
+      </c>
+      <c r="H20" s="22">
+        <v>17.750345039104431</v>
+      </c>
+      <c r="I20" s="22">
+        <v>14.591320349639625</v>
       </c>
       <c r="K20" s="16"/>
       <c r="M20" s="10"/>
@@ -3858,31 +3854,31 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="22">
-        <v>2.9136635485355007</v>
-      </c>
-      <c r="D21" s="22">
-        <v>23.155957675203187</v>
-      </c>
-      <c r="E21" s="22">
-        <v>19.061493635945407</v>
-      </c>
-      <c r="F21" s="22">
-        <v>13.441190001533506</v>
-      </c>
-      <c r="G21" s="22">
-        <v>9.0860297500383389</v>
-      </c>
-      <c r="H21" s="22">
-        <v>17.750345039104431</v>
-      </c>
-      <c r="I21" s="22">
-        <v>14.591320349639625</v>
+      <c r="B21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.33267665316135747</v>
+      </c>
+      <c r="E21" s="21">
+        <v>16.154332230606254</v>
+      </c>
+      <c r="F21" s="21">
+        <v>21.597963052447682</v>
+      </c>
+      <c r="G21" s="21">
+        <v>19.878823922982566</v>
+      </c>
+      <c r="H21" s="21">
+        <v>42.036204140802141</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="16"/>
       <c r="M21" s="10"/>
@@ -3893,31 +3889,31 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
-      <c r="B22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0.33267665316135747</v>
-      </c>
-      <c r="E22" s="21">
-        <v>16.154332230606254</v>
-      </c>
-      <c r="F22" s="21">
-        <v>21.597963052447682</v>
-      </c>
-      <c r="G22" s="21">
-        <v>19.878823922982566</v>
-      </c>
-      <c r="H22" s="21">
-        <v>42.036204140802141</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>5</v>
+      <c r="B22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="22">
+        <v>6.1912701139916591</v>
+      </c>
+      <c r="D22" s="22">
+        <v>26.429350200874772</v>
+      </c>
+      <c r="E22" s="22">
+        <v>20.879946037442888</v>
+      </c>
+      <c r="F22" s="22">
+        <v>13.990386858929488</v>
+      </c>
+      <c r="G22" s="22">
+        <v>10.238037663489155</v>
+      </c>
+      <c r="H22" s="22">
+        <v>16.032224810049254</v>
+      </c>
+      <c r="I22" s="22">
+        <v>6.2387843152227864</v>
       </c>
       <c r="K22" s="16"/>
       <c r="M22" s="10"/>
@@ -3928,31 +3924,31 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="22">
-        <v>6.1912701139916591</v>
-      </c>
-      <c r="D23" s="22">
-        <v>26.429350200874772</v>
-      </c>
-      <c r="E23" s="22">
-        <v>20.879946037442888</v>
-      </c>
-      <c r="F23" s="22">
-        <v>13.990386858929488</v>
-      </c>
-      <c r="G23" s="22">
-        <v>10.238037663489155</v>
-      </c>
-      <c r="H23" s="22">
-        <v>16.032224810049254</v>
-      </c>
-      <c r="I23" s="22">
-        <v>6.2387843152227864</v>
+      <c r="B23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="21">
+        <v>4.9464491967379507</v>
+      </c>
+      <c r="D23" s="21">
+        <v>21.906828602429037</v>
+      </c>
+      <c r="E23" s="21">
+        <v>18.987784816772255</v>
+      </c>
+      <c r="F23" s="21">
+        <v>15.198977984669771</v>
+      </c>
+      <c r="G23" s="21">
+        <v>14.197962969444541</v>
+      </c>
+      <c r="H23" s="21">
+        <v>24.761996429946446</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="K23" s="16"/>
       <c r="M23" s="10"/>
@@ -3963,30 +3959,30 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
-      <c r="B24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="21">
-        <v>4.9464491967379507</v>
-      </c>
-      <c r="D24" s="21">
-        <v>21.906828602429037</v>
-      </c>
-      <c r="E24" s="21">
-        <v>18.987784816772255</v>
-      </c>
-      <c r="F24" s="21">
-        <v>15.198977984669771</v>
-      </c>
-      <c r="G24" s="21">
-        <v>14.197962969444541</v>
-      </c>
-      <c r="H24" s="21">
-        <v>24.761996429946446</v>
-      </c>
-      <c r="I24" s="21" t="s">
+      <c r="B24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0.36934441366574328</v>
+      </c>
+      <c r="D24" s="22">
+        <v>12.927054478301015</v>
+      </c>
+      <c r="E24" s="22">
+        <v>27.977839335180054</v>
+      </c>
+      <c r="F24" s="22">
+        <v>18.467220683287167</v>
+      </c>
+      <c r="G24" s="22">
+        <v>16.897506925207757</v>
+      </c>
+      <c r="H24" s="22">
+        <v>23.361034164358262</v>
+      </c>
+      <c r="I24" s="22" t="s">
         <v>5</v>
       </c>
       <c r="K24" s="16"/>
@@ -3998,31 +3994,31 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="22">
-        <v>0.36934441366574328</v>
-      </c>
-      <c r="D25" s="22">
-        <v>12.927054478301015</v>
-      </c>
-      <c r="E25" s="22">
-        <v>27.977839335180054</v>
-      </c>
-      <c r="F25" s="22">
-        <v>18.467220683287167</v>
-      </c>
-      <c r="G25" s="22">
-        <v>16.897506925207757</v>
-      </c>
-      <c r="H25" s="22">
-        <v>23.361034164358262</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>5</v>
+      <c r="B25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0.31220901571999782</v>
+      </c>
+      <c r="D25" s="21">
+        <v>21.951032480692334</v>
+      </c>
+      <c r="E25" s="21">
+        <v>22.315824067480968</v>
+      </c>
+      <c r="F25" s="21">
+        <v>18.186996768362821</v>
+      </c>
+      <c r="G25" s="21">
+        <v>12.815906227748261</v>
+      </c>
+      <c r="H25" s="21">
+        <v>23.376239250698365</v>
+      </c>
+      <c r="I25" s="21">
+        <v>1.0417921892972686</v>
       </c>
       <c r="K25" s="16"/>
       <c r="M25" s="10"/>
@@ -4033,31 +4029,31 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
-      <c r="B26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="21">
-        <v>0.31220901571999782</v>
-      </c>
-      <c r="D26" s="21">
-        <v>21.951032480692334</v>
-      </c>
-      <c r="E26" s="21">
-        <v>22.315824067480968</v>
-      </c>
-      <c r="F26" s="21">
-        <v>18.186996768362821</v>
-      </c>
-      <c r="G26" s="21">
-        <v>12.815906227748261</v>
-      </c>
-      <c r="H26" s="21">
-        <v>23.376239250698365</v>
-      </c>
-      <c r="I26" s="21">
-        <v>1.0417921892972686</v>
+      <c r="B26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0.38305348348261858</v>
+      </c>
+      <c r="D26" s="22">
+        <v>17.755825005040176</v>
+      </c>
+      <c r="E26" s="22">
+        <v>22.179660724057488</v>
+      </c>
+      <c r="F26" s="22">
+        <v>18.395207511304399</v>
+      </c>
+      <c r="G26" s="22">
+        <v>13.815846317790387</v>
+      </c>
+      <c r="H26" s="22">
+        <v>27.470406958324933</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>5</v>
       </c>
       <c r="K26" s="16"/>
       <c r="M26" s="10"/>
@@ -4068,32 +4064,30 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="22">
-        <v>0.38305348348261858</v>
-      </c>
-      <c r="D27" s="22">
-        <v>17.755825005040176</v>
-      </c>
-      <c r="E27" s="22">
-        <v>22.179660724057488</v>
-      </c>
-      <c r="F27" s="22">
-        <v>18.395207511304399</v>
-      </c>
-      <c r="G27" s="22">
-        <v>13.815846317790387</v>
-      </c>
-      <c r="H27" s="22">
-        <v>27.470406958324933</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>5</v>
-      </c>
+      <c r="B27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0</v>
+      </c>
+      <c r="D27" s="21">
+        <v>11.834873114255643</v>
+      </c>
+      <c r="E27" s="21">
+        <v>23.821775230967134</v>
+      </c>
+      <c r="F27" s="21">
+        <v>18.606010992866331</v>
+      </c>
+      <c r="G27" s="21">
+        <v>14.65325692901415</v>
+      </c>
+      <c r="H27" s="21">
+        <v>31.08408373289674</v>
+      </c>
+      <c r="I27" s="21"/>
       <c r="K27" s="16"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
@@ -4103,30 +4097,32 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
-      <c r="B28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0</v>
-      </c>
-      <c r="D28" s="21">
-        <v>11.834873114255643</v>
-      </c>
-      <c r="E28" s="21">
-        <v>23.821775230967134</v>
-      </c>
-      <c r="F28" s="21">
-        <v>18.606010992866331</v>
-      </c>
-      <c r="G28" s="21">
-        <v>14.65325692901415</v>
-      </c>
-      <c r="H28" s="21">
-        <v>31.08408373289674</v>
-      </c>
-      <c r="I28" s="21"/>
+      <c r="B28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="22">
+        <v>3.0284675953967291E-2</v>
+      </c>
+      <c r="D28" s="22">
+        <v>13.254593175853019</v>
+      </c>
+      <c r="E28" s="22">
+        <v>27.559055118110237</v>
+      </c>
+      <c r="F28" s="22">
+        <v>20.109024833434283</v>
+      </c>
+      <c r="G28" s="22">
+        <v>13.476680799515444</v>
+      </c>
+      <c r="H28" s="22">
+        <v>21.663638199071269</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="K28" s="16"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
@@ -4136,30 +4132,30 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="22">
-        <v>3.0284675953967291E-2</v>
-      </c>
-      <c r="D29" s="22">
-        <v>13.254593175853019</v>
-      </c>
-      <c r="E29" s="22">
-        <v>27.559055118110237</v>
-      </c>
-      <c r="F29" s="22">
-        <v>20.109024833434283</v>
-      </c>
-      <c r="G29" s="22">
-        <v>13.476680799515444</v>
-      </c>
-      <c r="H29" s="22">
-        <v>21.663638199071269</v>
-      </c>
-      <c r="I29" s="22" t="s">
+      <c r="B29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="21">
+        <v>6.2080953563446742E-2</v>
+      </c>
+      <c r="D29" s="21">
+        <v>17.329898187236157</v>
+      </c>
+      <c r="E29" s="21">
+        <v>22.619195430841817</v>
+      </c>
+      <c r="F29" s="21">
+        <v>16.72771293767072</v>
+      </c>
+      <c r="G29" s="21">
+        <v>13.657809783958283</v>
+      </c>
+      <c r="H29" s="21">
+        <v>29.603302706729572</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K29" s="16"/>
@@ -4171,30 +4167,30 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
-      <c r="B30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="21">
-        <v>6.2080953563446742E-2</v>
-      </c>
-      <c r="D30" s="21">
-        <v>17.329898187236157</v>
-      </c>
-      <c r="E30" s="21">
-        <v>22.619195430841817</v>
-      </c>
-      <c r="F30" s="21">
-        <v>16.72771293767072</v>
-      </c>
-      <c r="G30" s="21">
-        <v>13.657809783958283</v>
-      </c>
-      <c r="H30" s="21">
-        <v>29.603302706729572</v>
-      </c>
-      <c r="I30" s="21" t="s">
+      <c r="B30" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="63">
+        <v>0.63829787234042545</v>
+      </c>
+      <c r="D30" s="63">
+        <v>12.777777777777777</v>
+      </c>
+      <c r="E30" s="63">
+        <v>19.46414499605989</v>
+      </c>
+      <c r="F30" s="63">
+        <v>19.00709219858156</v>
+      </c>
+      <c r="G30" s="63">
+        <v>15.319148936170212</v>
+      </c>
+      <c r="H30" s="63">
+        <v>32.45862884160757</v>
+      </c>
+      <c r="I30" s="63" t="s">
         <v>5</v>
       </c>
       <c r="K30" s="16"/>
@@ -4206,30 +4202,30 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
-      <c r="B31" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="63">
-        <v>0.63829787234042545</v>
-      </c>
-      <c r="D31" s="63">
-        <v>12.777777777777777</v>
-      </c>
-      <c r="E31" s="63">
-        <v>19.46414499605989</v>
-      </c>
-      <c r="F31" s="63">
-        <v>19.00709219858156</v>
-      </c>
-      <c r="G31" s="63">
-        <v>15.319148936170212</v>
-      </c>
-      <c r="H31" s="63">
-        <v>32.45862884160757</v>
-      </c>
-      <c r="I31" s="63" t="s">
+      <c r="B31" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="65">
+        <v>0.20094994519546952</v>
+      </c>
+      <c r="D31" s="65">
+        <v>12.458896602119109</v>
+      </c>
+      <c r="E31" s="65">
+        <v>20.369017172086227</v>
+      </c>
+      <c r="F31" s="65">
+        <v>16.888929484837416</v>
+      </c>
+      <c r="G31" s="65">
+        <v>16.58750456704421</v>
+      </c>
+      <c r="H31" s="65">
+        <v>33.494702228717578</v>
+      </c>
+      <c r="I31" s="65" t="s">
         <v>5</v>
       </c>
       <c r="K31" s="16"/>
@@ -4241,30 +4237,30 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
-      <c r="B32" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="65">
-        <v>0.20094994519546952</v>
-      </c>
-      <c r="D32" s="65">
-        <v>12.458896602119109</v>
-      </c>
-      <c r="E32" s="65">
-        <v>20.369017172086227</v>
-      </c>
-      <c r="F32" s="65">
-        <v>16.888929484837416</v>
-      </c>
-      <c r="G32" s="65">
-        <v>16.58750456704421</v>
-      </c>
-      <c r="H32" s="65">
-        <v>33.494702228717578</v>
-      </c>
-      <c r="I32" s="65" t="s">
+      <c r="B32" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="63">
+        <v>0.19928258270227184</v>
+      </c>
+      <c r="D32" s="63">
+        <v>14.707054603427661</v>
+      </c>
+      <c r="E32" s="63">
+        <v>18.214428058987643</v>
+      </c>
+      <c r="F32" s="63">
+        <v>15.982463132722199</v>
+      </c>
+      <c r="G32" s="63">
+        <v>13.750498206456754</v>
+      </c>
+      <c r="H32" s="63">
+        <v>37.146273415703469</v>
+      </c>
+      <c r="I32" s="63" t="s">
         <v>5</v>
       </c>
       <c r="K32" s="16"/>
@@ -4276,32 +4272,33 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
-      <c r="B33" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="63">
-        <v>0.19928258270227184</v>
-      </c>
-      <c r="D33" s="63">
-        <v>14.707054603427661</v>
-      </c>
-      <c r="E33" s="63">
-        <v>18.214428058987643</v>
-      </c>
-      <c r="F33" s="63">
-        <v>15.982463132722199</v>
-      </c>
-      <c r="G33" s="63">
-        <v>13.750498206456754</v>
-      </c>
-      <c r="H33" s="63">
-        <v>37.146273415703469</v>
-      </c>
-      <c r="I33" s="63" t="s">
+      <c r="B33" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="65">
+        <v>0.27910456350348162</v>
+      </c>
+      <c r="D33" s="65">
+        <v>13.558151579674282</v>
+      </c>
+      <c r="E33" s="65">
+        <v>22.800253208263797</v>
+      </c>
+      <c r="F33" s="65">
+        <v>17.355316414417523</v>
+      </c>
+      <c r="G33" s="65">
+        <v>14.04730390746389</v>
+      </c>
+      <c r="H33" s="65">
+        <v>31.959870326677027</v>
+      </c>
+      <c r="I33" s="65" t="s">
         <v>5</v>
       </c>
+      <c r="J33"/>
       <c r="K33" s="16"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
@@ -4311,33 +4308,32 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="65">
-        <v>0.27910456350348162</v>
-      </c>
-      <c r="D34" s="65">
-        <v>13.558151579674282</v>
-      </c>
-      <c r="E34" s="65">
-        <v>22.800253208263797</v>
-      </c>
-      <c r="F34" s="65">
-        <v>17.355316414417523</v>
-      </c>
-      <c r="G34" s="65">
-        <v>14.04730390746389</v>
-      </c>
-      <c r="H34" s="65">
-        <v>31.959870326677027</v>
-      </c>
-      <c r="I34" s="65" t="s">
+      <c r="B34" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="63">
+        <v>0.54222525830415846</v>
+      </c>
+      <c r="D34" s="63">
+        <v>28.793442063017675</v>
+      </c>
+      <c r="E34" s="63">
+        <v>27.888310135769789</v>
+      </c>
+      <c r="F34" s="63">
+        <v>14.32840918794296</v>
+      </c>
+      <c r="G34" s="63">
+        <v>9.251985312953634</v>
+      </c>
+      <c r="H34" s="63">
+        <v>18.422850311672786</v>
+      </c>
+      <c r="I34" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J34"/>
       <c r="K34" s="16"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
@@ -4347,32 +4343,33 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
-      <c r="B35" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="63">
-        <v>0.54222525830415846</v>
-      </c>
-      <c r="D35" s="63">
-        <v>28.793442063017675</v>
-      </c>
-      <c r="E35" s="63">
-        <v>27.888310135769789</v>
-      </c>
-      <c r="F35" s="63">
-        <v>14.32840918794296</v>
-      </c>
-      <c r="G35" s="63">
-        <v>9.251985312953634</v>
-      </c>
-      <c r="H35" s="63">
-        <v>18.422850311672786</v>
-      </c>
-      <c r="I35" s="63" t="s">
+      <c r="B35" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="65">
+        <v>0.18803418803418803</v>
+      </c>
+      <c r="D35" s="65">
+        <v>12.028490028490028</v>
+      </c>
+      <c r="E35" s="65">
+        <v>26.826210826210829</v>
+      </c>
+      <c r="F35" s="65">
+        <v>18.319088319088319</v>
+      </c>
+      <c r="G35" s="65">
+        <v>13.86894586894587</v>
+      </c>
+      <c r="H35" s="65">
+        <v>28.76923076923077</v>
+      </c>
+      <c r="I35" s="65" t="s">
         <v>5</v>
       </c>
+      <c r="J35"/>
       <c r="K35" s="16"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
@@ -4382,30 +4379,30 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
-      <c r="B36" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="65">
-        <v>0.18803418803418803</v>
-      </c>
-      <c r="D36" s="65">
-        <v>12.028490028490028</v>
-      </c>
-      <c r="E36" s="65">
-        <v>26.826210826210829</v>
-      </c>
-      <c r="F36" s="65">
-        <v>18.319088319088319</v>
-      </c>
-      <c r="G36" s="65">
-        <v>13.86894586894587</v>
-      </c>
-      <c r="H36" s="65">
-        <v>28.76923076923077</v>
-      </c>
-      <c r="I36" s="65" t="s">
+      <c r="B36" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="63">
+        <v>1.0808838435029393</v>
+      </c>
+      <c r="D36" s="63">
+        <v>29.0135819987837</v>
+      </c>
+      <c r="E36" s="63">
+        <v>25.618487735657812</v>
+      </c>
+      <c r="F36" s="63">
+        <v>15.62375836205149</v>
+      </c>
+      <c r="G36" s="63">
+        <v>11.848368132981959</v>
+      </c>
+      <c r="H36" s="63">
+        <v>16.565984188120819</v>
+      </c>
+      <c r="I36" s="63" t="s">
         <v>5</v>
       </c>
       <c r="J36"/>
@@ -4418,30 +4415,30 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
-      <c r="B37" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="63">
-        <v>1.0808838435029393</v>
-      </c>
-      <c r="D37" s="63">
-        <v>29.0135819987837</v>
-      </c>
-      <c r="E37" s="63">
-        <v>25.618487735657812</v>
-      </c>
-      <c r="F37" s="63">
-        <v>15.62375836205149</v>
-      </c>
-      <c r="G37" s="63">
-        <v>11.848368132981959</v>
-      </c>
-      <c r="H37" s="63">
-        <v>16.565984188120819</v>
-      </c>
-      <c r="I37" s="63" t="s">
+      <c r="B37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="21">
+        <v>2.9283930828272863E-2</v>
+      </c>
+      <c r="D37" s="21">
+        <v>15.207607656977281</v>
+      </c>
+      <c r="E37" s="21">
+        <v>27.422859961160263</v>
+      </c>
+      <c r="F37" s="21">
+        <v>18.673129681575784</v>
+      </c>
+      <c r="G37" s="21">
+        <v>13.398168983693473</v>
+      </c>
+      <c r="H37" s="21">
+        <v>25.268949785764928</v>
+      </c>
+      <c r="I37" s="21" t="s">
         <v>5</v>
       </c>
       <c r="J37"/>
@@ -4454,34 +4451,33 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
-      <c r="B38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="21">
-        <v>2.9283930828272863E-2</v>
-      </c>
-      <c r="D38" s="21">
-        <v>15.207607656977281</v>
-      </c>
-      <c r="E38" s="21">
-        <v>27.422859961160263</v>
-      </c>
-      <c r="F38" s="21">
-        <v>18.673129681575784</v>
-      </c>
-      <c r="G38" s="21">
-        <v>13.398168983693473</v>
-      </c>
-      <c r="H38" s="21">
-        <v>25.268949785764928</v>
-      </c>
-      <c r="I38" s="21" t="s">
+      <c r="B38" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="67">
+        <v>0.42418919251818327</v>
+      </c>
+      <c r="D38" s="67">
+        <v>16.391151924709337</v>
+      </c>
+      <c r="E38" s="67">
+        <v>23.943579735530662</v>
+      </c>
+      <c r="F38" s="67">
+        <v>17.598655275820885</v>
+      </c>
+      <c r="G38" s="67">
+        <v>13.976458817336875</v>
+      </c>
+      <c r="H38" s="67">
+        <v>27.346439288392119</v>
+      </c>
+      <c r="I38" s="67" t="s">
         <v>5</v>
       </c>
       <c r="J38"/>
-      <c r="K38" s="16"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -4490,34 +4486,33 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
-      <c r="B39" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="63">
+        <v>0.18414664769398176</v>
+      </c>
+      <c r="D39" s="63">
+        <v>19.511174353394157</v>
+      </c>
+      <c r="E39" s="63">
+        <v>24.25713568259814</v>
+      </c>
+      <c r="F39" s="63">
+        <v>15.35113417594375</v>
+      </c>
+      <c r="G39" s="63">
+        <v>12.756340503892192</v>
+      </c>
+      <c r="H39" s="63">
+        <v>27.940068636477775</v>
+      </c>
+      <c r="I39" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>5</v>
-      </c>
       <c r="J39"/>
-      <c r="K39" s="16"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -4526,30 +4521,30 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
-      <c r="B40" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="67">
-        <v>0.42418919251818327</v>
-      </c>
-      <c r="D40" s="67">
-        <v>16.391151924709337</v>
-      </c>
-      <c r="E40" s="67">
-        <v>23.943579735530662</v>
-      </c>
-      <c r="F40" s="67">
-        <v>17.598655275820885</v>
-      </c>
-      <c r="G40" s="67">
-        <v>13.976458817336875</v>
-      </c>
-      <c r="H40" s="67">
-        <v>27.346439288392119</v>
-      </c>
-      <c r="I40" s="67" t="s">
+      <c r="B40" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="65">
+        <v>0.56547093125993997</v>
+      </c>
+      <c r="D40" s="65">
+        <v>16.29263120692702</v>
+      </c>
+      <c r="E40" s="65">
+        <v>22.618837250397597</v>
+      </c>
+      <c r="F40" s="65">
+        <v>16.769747305177592</v>
+      </c>
+      <c r="G40" s="65">
+        <v>15.037992578194025</v>
+      </c>
+      <c r="H40" s="65">
+        <v>28.715320728043825</v>
+      </c>
+      <c r="I40" s="65" t="s">
         <v>5</v>
       </c>
       <c r="J40"/>
@@ -4561,28 +4556,28 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="62" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C41" s="63">
-        <v>0.18414664769398176</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="D41" s="63">
-        <v>19.511174353394157</v>
+        <v>28.538550057537403</v>
       </c>
       <c r="E41" s="63">
-        <v>24.25713568259814</v>
+        <v>25.201380897583427</v>
       </c>
       <c r="F41" s="63">
-        <v>15.35113417594375</v>
+        <v>15.362485615650174</v>
       </c>
       <c r="G41" s="63">
-        <v>12.756340503892192</v>
+        <v>9.6087456846950516</v>
       </c>
       <c r="H41" s="63">
-        <v>27.940068636477775</v>
+        <v>17.491369390103568</v>
       </c>
       <c r="I41" s="63" t="s">
         <v>5</v>
@@ -4596,30 +4591,30 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
-      <c r="B42" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="65">
-        <v>0.56547093125993997</v>
-      </c>
-      <c r="D42" s="65">
-        <v>16.29263120692702</v>
-      </c>
-      <c r="E42" s="65">
-        <v>22.618837250397597</v>
-      </c>
-      <c r="F42" s="65">
-        <v>16.769747305177592</v>
-      </c>
-      <c r="G42" s="65">
-        <v>15.037992578194025</v>
-      </c>
-      <c r="H42" s="65">
-        <v>28.715320728043825</v>
-      </c>
-      <c r="I42" s="65" t="s">
+      <c r="B42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="21">
+        <v>0.90274928190398029</v>
+      </c>
+      <c r="D42" s="21">
+        <v>16.550403501572973</v>
+      </c>
+      <c r="E42" s="21">
+        <v>28.641772671317195</v>
+      </c>
+      <c r="F42" s="21">
+        <v>12.734236082615238</v>
+      </c>
+      <c r="G42" s="21">
+        <v>10.874025441116126</v>
+      </c>
+      <c r="H42" s="21">
+        <v>30.296813021474488</v>
+      </c>
+      <c r="I42" s="21" t="s">
         <v>5</v>
       </c>
       <c r="J42"/>
@@ -4631,30 +4626,30 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
-      <c r="B43" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="63">
-        <v>3.79746835443038</v>
-      </c>
-      <c r="D43" s="63">
-        <v>28.538550057537403</v>
-      </c>
-      <c r="E43" s="63">
-        <v>25.201380897583427</v>
-      </c>
-      <c r="F43" s="63">
-        <v>15.362485615650174</v>
-      </c>
-      <c r="G43" s="63">
-        <v>9.6087456846950516</v>
-      </c>
-      <c r="H43" s="63">
-        <v>17.491369390103568</v>
-      </c>
-      <c r="I43" s="63" t="s">
+      <c r="B43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="22">
+        <v>0.94239830752957021</v>
+      </c>
+      <c r="D43" s="22">
+        <v>19.136455428406578</v>
+      </c>
+      <c r="E43" s="22">
+        <v>23.473410904894703</v>
+      </c>
+      <c r="F43" s="22">
+        <v>13.049331666506395</v>
+      </c>
+      <c r="G43" s="22">
+        <v>12.183863833060871</v>
+      </c>
+      <c r="H43" s="22">
+        <v>31.214539859601885</v>
+      </c>
+      <c r="I43" s="22" t="s">
         <v>5</v>
       </c>
       <c r="J43"/>
@@ -4666,33 +4661,34 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="9" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C44" s="21">
-        <v>0.90274928190398029</v>
+        <v>0</v>
       </c>
       <c r="D44" s="21">
-        <v>16.550403501572973</v>
+        <v>0</v>
       </c>
       <c r="E44" s="21">
-        <v>28.641772671317195</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F44" s="21">
-        <v>12.734236082615238</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="G44" s="21">
-        <v>10.874025441116126</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="H44" s="21">
-        <v>30.296813021474488</v>
+        <v>50</v>
       </c>
       <c r="I44" s="21" t="s">
         <v>5</v>
       </c>
       <c r="J44"/>
+      <c r="K44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
@@ -4701,33 +4697,34 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
-      <c r="B45" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="22">
-        <v>0.94239830752957021</v>
-      </c>
-      <c r="D45" s="22">
-        <v>19.136455428406578</v>
-      </c>
-      <c r="E45" s="22">
-        <v>23.473410904894703</v>
-      </c>
-      <c r="F45" s="22">
-        <v>13.049331666506395</v>
-      </c>
-      <c r="G45" s="22">
-        <v>12.183863833060871</v>
-      </c>
-      <c r="H45" s="22">
-        <v>31.214539859601885</v>
-      </c>
-      <c r="I45" s="22" t="s">
+      <c r="B45" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="23">
+        <v>0.56735606484069312</v>
+      </c>
+      <c r="D45" s="23">
+        <v>23.233650083845724</v>
+      </c>
+      <c r="E45" s="23">
+        <v>24.882615986584682</v>
+      </c>
+      <c r="F45" s="23">
+        <v>16.648965902738961</v>
+      </c>
+      <c r="G45" s="23">
+        <v>12.512576858580212</v>
+      </c>
+      <c r="H45" s="23">
+        <v>22.154835103409727</v>
+      </c>
+      <c r="I45" s="23" t="s">
         <v>5</v>
       </c>
       <c r="J45"/>
+      <c r="K45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
@@ -4736,347 +4733,275 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
-      <c r="B46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="21">
-        <v>0</v>
-      </c>
-      <c r="D46" s="21">
-        <v>0</v>
-      </c>
-      <c r="E46" s="21">
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="F46" s="21">
-        <v>35.714285714285715</v>
-      </c>
-      <c r="G46" s="21">
-        <v>9.5238095238095237</v>
-      </c>
-      <c r="H46" s="21">
-        <v>50</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="B46" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
       <c r="J46"/>
-      <c r="K46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-    </row>
-    <row r="47" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="23">
-        <v>0.56735606484069312</v>
-      </c>
-      <c r="D47" s="23">
-        <v>23.233650083845724</v>
-      </c>
-      <c r="E47" s="23">
-        <v>24.882615986584682</v>
-      </c>
-      <c r="F47" s="23">
-        <v>16.648965902738961</v>
-      </c>
-      <c r="G47" s="23">
-        <v>12.512576858580212</v>
-      </c>
-      <c r="H47" s="23">
-        <v>22.154835103409727</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-    </row>
-    <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+    </row>
+    <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-    </row>
-    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17"/>
-      <c r="B50" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-    </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-    </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-    </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17"/>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="17"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="17"/>
+      <c r="B55" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-    </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-    </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-    </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-    </row>
-    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-    </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
-    </row>
-    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-    </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="29" t="s">
-        <v>65</v>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+    </row>
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+    </row>
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+    </row>
+    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-    </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="31" t="s">
-        <v>100</v>
-      </c>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="29"/>
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="11"/>
-    </row>
-    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="17"/>
+    </row>
+    <row r="65" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="17"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="17"/>
     </row>
-    <row r="67" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="17"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" s="17"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" s="17"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" s="17"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" s="17"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" s="17"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="17"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" s="17"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="17"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" s="17"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" s="17"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" s="17"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" s="17"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" s="17"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="17"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" s="17"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" s="17"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="17"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="17"/>
     </row>
   </sheetData>
   <sortState ref="K6:S50">
     <sortCondition ref="L6:L50"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B50:I52"/>
-    <mergeCell ref="B53:I56"/>
-    <mergeCell ref="B57:I59"/>
+    <mergeCell ref="B51:I54"/>
+    <mergeCell ref="B55:I57"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B48:I49"/>
+    <mergeCell ref="B46:I47"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B48:I50"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B61" r:id="rId1" display="for all countries, United Nations Demographic Yearbook "/>
-    <hyperlink ref="B62" r:id="rId2"/>
+    <hyperlink ref="B59" r:id="rId1" display="for all countries, United Nations Demographic Yearbook "/>
+    <hyperlink ref="B60" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5085,129 +5010,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="2.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="8" width="9.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="13.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="2.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="6" max="8" width="9.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-    </row>
-    <row r="2" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="78" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="81"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="81"/>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="78"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="81"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="79" t="s">
+      <c r="G6" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="83" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="84"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="8"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="9" t="s">
         <v>4</v>
@@ -5234,10 +5159,10 @@
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="22">
         <v>42.527783193604989</v>
@@ -5261,7 +5186,7 @@
       </c>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="9" t="s">
         <v>9</v>
@@ -5288,7 +5213,7 @@
       </c>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>10</v>
@@ -5315,10 +5240,10 @@
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="21">
         <v>36.562310949788262</v>
@@ -5342,10 +5267,10 @@
       </c>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="22">
         <v>42.637039217128979</v>
@@ -5369,7 +5294,7 @@
       </c>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="9" t="s">
         <v>13</v>
@@ -5396,7 +5321,7 @@
       </c>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
@@ -5423,7 +5348,7 @@
       </c>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="9" t="s">
         <v>15</v>
@@ -5450,7 +5375,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
         <v>16</v>
@@ -5477,7 +5402,7 @@
       </c>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="9" t="s">
         <v>17</v>
@@ -5504,10 +5429,10 @@
       </c>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="22">
         <v>43.194732215734291</v>
@@ -5531,10 +5456,10 @@
       </c>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="21">
         <v>38.755678546292152</v>
@@ -5558,7 +5483,7 @@
       </c>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
         <v>22</v>
@@ -5585,7 +5510,7 @@
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="9" t="s">
         <v>23</v>
@@ -5612,7 +5537,7 @@
       </c>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
         <v>24</v>
@@ -5639,7 +5564,7 @@
       </c>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="9" t="s">
         <v>25</v>
@@ -5666,10 +5591,10 @@
       </c>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="22">
         <v>43.832684824902721</v>
@@ -5693,7 +5618,7 @@
       </c>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="9" t="s">
         <v>27</v>
@@ -5720,7 +5645,7 @@
       </c>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
         <v>28</v>
@@ -5747,7 +5672,7 @@
       </c>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="9" t="s">
         <v>30</v>
@@ -5774,7 +5699,7 @@
       </c>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>31</v>
@@ -5801,7 +5726,7 @@
       </c>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="9" t="s">
         <v>32</v>
@@ -5828,7 +5753,7 @@
       </c>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="12" t="s">
         <v>33</v>
@@ -5855,7 +5780,7 @@
       </c>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="9" t="s">
         <v>34</v>
@@ -5882,7 +5807,7 @@
       </c>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
         <v>35</v>
@@ -5909,7 +5834,7 @@
       </c>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="7" t="s">
         <v>36</v>
@@ -5936,10 +5861,10 @@
       </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="27">
         <v>42.053272510347476</v>
@@ -5963,10 +5888,10 @@
       </c>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="21">
         <v>47.972104973389612</v>
@@ -5991,10 +5916,10 @@
       <c r="K36"/>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="22">
         <v>41.776384535005221</v>
@@ -6018,10 +5943,10 @@
       </c>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="21">
         <v>51.169423844837425</v>
@@ -6046,7 +5971,7 @@
       <c r="K38"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="12" t="s">
         <v>20</v>
@@ -6074,7 +5999,7 @@
       <c r="K39"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="9" t="s">
         <v>21</v>
@@ -6102,7 +6027,7 @@
       <c r="K40"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="13" t="s">
         <v>29</v>
@@ -6130,183 +6055,183 @@
       <c r="K41"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
-      <c r="B42" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
+      <c r="B42" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
-      <c r="B44" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
+      <c r="B44" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
-      <c r="B45" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
+      <c r="B45" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
-      <c r="B46" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
+      <c r="B46" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
-      <c r="B47" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
+      <c r="B47" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
-      <c r="B48" s="82" t="s">
+      <c r="B48" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48"/>
-    </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49"/>
-    </row>
-    <row r="50" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
-      <c r="B51" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-    </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+    </row>
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+    </row>
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="17"/>
+      <c r="B53" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-    </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-    </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+    </row>
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
       <c r="B54" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -6317,9 +6242,9 @@
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -6330,80 +6255,84 @@
       <c r="I55" s="30"/>
       <c r="J55" s="30"/>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="17"/>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="17"/>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="17"/>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="17"/>
     </row>
-    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="17"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="17"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="17"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="17"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" s="17"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" s="17"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" s="17"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" s="17"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" s="17"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" s="17"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" s="17"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" s="17"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" s="17"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" s="17"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="B48:J49"/>
@@ -6419,10 +6348,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B55" r:id="rId1"/>
@@ -6434,29 +6359,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="35"/>
-    <col min="12" max="12" width="14.28515625" style="35" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="35" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="40" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="15.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="8.83203125" style="35"/>
+    <col min="12" max="12" width="14.33203125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" style="35" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="40" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="35" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -6469,7 +6394,7 @@
       <c r="J1" s="32"/>
       <c r="K1" s="33"/>
       <c r="L1" s="90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M1" s="90"/>
       <c r="N1" s="90"/>
@@ -6477,7 +6402,7 @@
       <c r="P1" s="34"/>
       <c r="Q1" s="34"/>
     </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="86"/>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
@@ -6496,7 +6421,7 @@
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
     </row>
-    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -6510,14 +6435,14 @@
       <c r="K3" s="33"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="77"/>
+      <c r="N3" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="70"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -6532,17 +6457,17 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O4" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P4" s="33"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -6569,7 +6494,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -6582,7 +6507,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
       <c r="L6" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="22">
@@ -6596,7 +6521,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -6623,7 +6548,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -6650,7 +6575,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -6677,7 +6602,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -6704,7 +6629,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -6731,7 +6656,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -6758,7 +6683,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -6785,7 +6710,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -6812,7 +6737,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -6839,7 +6764,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -6866,7 +6791,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
@@ -6893,7 +6818,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -6918,7 +6843,7 @@
       <c r="P18" s="42"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -6945,9 +6870,9 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
@@ -6974,7 +6899,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="87"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
@@ -7001,9 +6926,9 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
@@ -7031,7 +6956,7 @@
       <c r="S22" s="1"/>
       <c r="X22" s="58"/>
     </row>
-    <row r="23" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="88"/>
       <c r="B23" s="88"/>
       <c r="C23" s="88"/>
@@ -7057,7 +6982,7 @@
       <c r="S23" s="40"/>
       <c r="T23" s="44"/>
     </row>
-    <row r="24" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="88"/>
       <c r="B24" s="88"/>
       <c r="C24" s="88"/>
@@ -7070,7 +6995,7 @@
       <c r="J24" s="46"/>
       <c r="K24" s="39"/>
       <c r="L24" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="25">
@@ -7084,7 +7009,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="88"/>
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
@@ -7111,9 +7036,9 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
@@ -7126,7 +7051,7 @@
       <c r="J26" s="46"/>
       <c r="K26" s="39"/>
       <c r="L26" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="22">
@@ -7140,9 +7065,9 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="88"/>
       <c r="C27" s="88"/>
@@ -7169,9 +7094,9 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="85"/>
       <c r="C28" s="85"/>
@@ -7198,7 +7123,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -7225,7 +7150,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -7252,7 +7177,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -7279,7 +7204,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
@@ -7306,7 +7231,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
@@ -7333,7 +7258,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -7360,7 +7285,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -7387,7 +7312,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -7414,7 +7339,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -7441,7 +7366,7 @@
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
     </row>
-    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -7454,7 +7379,7 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M38" s="89"/>
       <c r="N38" s="89"/>
@@ -7462,7 +7387,7 @@
       <c r="P38" s="42"/>
       <c r="Q38" s="39"/>
     </row>
-    <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -7481,7 +7406,7 @@
       <c r="P39" s="42"/>
       <c r="Q39" s="39"/>
     </row>
-    <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -7494,7 +7419,7 @@
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
       <c r="L40" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M40" s="87"/>
       <c r="N40" s="87"/>
@@ -7502,7 +7427,7 @@
       <c r="P40" s="42"/>
       <c r="Q40" s="39"/>
     </row>
-    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -7521,7 +7446,7 @@
       <c r="P41" s="42"/>
       <c r="Q41" s="39"/>
     </row>
-    <row r="42" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -7540,7 +7465,7 @@
       <c r="P42" s="42"/>
       <c r="Q42" s="39"/>
     </row>
-    <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -7559,7 +7484,7 @@
       <c r="P43" s="42"/>
       <c r="Q43" s="39"/>
     </row>
-    <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -7578,7 +7503,7 @@
       <c r="P44" s="42"/>
       <c r="Q44" s="39"/>
     </row>
-    <row r="45" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -7591,7 +7516,7 @@
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
       <c r="L45" s="87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M45" s="87"/>
       <c r="N45" s="87"/>
@@ -7599,7 +7524,7 @@
       <c r="P45" s="42"/>
       <c r="Q45" s="39"/>
     </row>
-    <row r="46" spans="1:19" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -7612,7 +7537,7 @@
       <c r="J46" s="48"/>
       <c r="K46" s="48"/>
       <c r="L46" s="88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
@@ -7620,7 +7545,7 @@
       <c r="P46" s="51"/>
       <c r="Q46" s="39"/>
     </row>
-    <row r="47" spans="1:19" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -7633,7 +7558,7 @@
       <c r="J47" s="48"/>
       <c r="K47" s="48"/>
       <c r="L47" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M47" s="85"/>
       <c r="N47" s="85"/>
@@ -7641,7 +7566,7 @@
       <c r="P47" s="51"/>
       <c r="Q47" s="51"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -7660,7 +7585,7 @@
       <c r="P48" s="56"/>
       <c r="Q48" s="51"/>
     </row>
-    <row r="49" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -7679,7 +7604,7 @@
       <c r="P49" s="51"/>
       <c r="Q49" s="51"/>
     </row>
-    <row r="50" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -7698,7 +7623,7 @@
       <c r="P50" s="51"/>
       <c r="Q50" s="51"/>
     </row>
-    <row r="51" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -7717,7 +7642,7 @@
       <c r="P51" s="51"/>
       <c r="Q51" s="51"/>
     </row>
-    <row r="52" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -7736,7 +7661,7 @@
       <c r="P52" s="51"/>
       <c r="Q52" s="51"/>
     </row>
-    <row r="53" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -7755,7 +7680,7 @@
       <c r="P53" s="51"/>
       <c r="Q53" s="51"/>
     </row>
-    <row r="54" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="J54" s="51"/>
       <c r="K54" s="51"/>
       <c r="L54" s="57"/>
@@ -7765,7 +7690,7 @@
       <c r="P54" s="51"/>
       <c r="Q54" s="51"/>
     </row>
-    <row r="55" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="J55" s="51"/>
       <c r="K55" s="51"/>
       <c r="L55" s="57"/>
@@ -7774,19 +7699,19 @@
       <c r="O55" s="50"/>
       <c r="Q55" s="51"/>
     </row>
-    <row r="56" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="L56" s="47"/>
       <c r="M56" s="48"/>
       <c r="N56" s="49"/>
       <c r="O56" s="50"/>
     </row>
-    <row r="57" spans="1:17" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="L57" s="52"/>
       <c r="M57" s="48"/>
       <c r="N57" s="49"/>
       <c r="O57" s="50"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="L58" s="51"/>
       <c r="M58" s="51"/>
       <c r="N58" s="56"/>
@@ -7823,29 +7748,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E3" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="35"/>
-    <col min="12" max="12" width="14.28515625" style="35" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="35" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="40" customWidth="1"/>
-    <col min="15" max="17" width="12.140625" style="35" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="15.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="8.83203125" style="35"/>
+    <col min="12" max="12" width="14.33203125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="35" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="40" customWidth="1"/>
+    <col min="15" max="17" width="12.1640625" style="35" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -7858,7 +7783,7 @@
       <c r="J1" s="32"/>
       <c r="K1" s="33"/>
       <c r="L1" s="90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M1" s="90"/>
       <c r="N1" s="90"/>
@@ -7868,7 +7793,7 @@
       <c r="R1" s="34"/>
       <c r="S1" s="34"/>
     </row>
-    <row r="2" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="86"/>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
@@ -7889,7 +7814,7 @@
       <c r="R2" s="34"/>
       <c r="S2" s="34"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -7903,16 +7828,16 @@
       <c r="K3" s="33"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
+      <c r="N3" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
       <c r="R3" s="34"/>
       <c r="S3" s="34"/>
     </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -7927,23 +7852,23 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="P4" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="Q4" s="38" t="s">
         <v>80</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>81</v>
       </c>
       <c r="R4" s="33"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -7973,7 +7898,7 @@
       <c r="U5" s="1"/>
       <c r="Y5" s="61"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -8005,7 +7930,7 @@
       <c r="U6" s="1"/>
       <c r="Y6" s="61"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -8035,7 +7960,7 @@
       <c r="U7" s="1"/>
       <c r="Y7" s="61"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -8068,7 +7993,7 @@
       <c r="Y8" s="61"/>
       <c r="Z8" s="58"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -8096,7 +8021,7 @@
       <c r="U9" s="1"/>
       <c r="Y9" s="61"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -8126,7 +8051,7 @@
       <c r="U10" s="1"/>
       <c r="Y10" s="61"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -8156,7 +8081,7 @@
       <c r="U11" s="1"/>
       <c r="Y11" s="61"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -8188,7 +8113,7 @@
       <c r="U12" s="1"/>
       <c r="Y12" s="61"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -8218,7 +8143,7 @@
       <c r="U13" s="1"/>
       <c r="Y13" s="61"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -8250,7 +8175,7 @@
       <c r="U14" s="1"/>
       <c r="Y14" s="61"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -8280,7 +8205,7 @@
       <c r="U15" s="1"/>
       <c r="Y15" s="61"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -8312,7 +8237,7 @@
       <c r="U16" s="1"/>
       <c r="Y16" s="61"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
@@ -8340,7 +8265,7 @@
       <c r="S17" s="33"/>
       <c r="Y17" s="61"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -8374,7 +8299,7 @@
       <c r="U18" s="1"/>
       <c r="Y18" s="61"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -8387,7 +8312,7 @@
       <c r="J19" s="39"/>
       <c r="K19" s="39"/>
       <c r="L19" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="21"/>
@@ -8404,9 +8329,9 @@
       <c r="U19" s="1"/>
       <c r="Y19" s="61"/>
     </row>
-    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
@@ -8438,7 +8363,7 @@
       <c r="U20" s="1"/>
       <c r="Y20" s="61"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="87"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
@@ -8466,18 +8391,18 @@
       <c r="U21" s="1"/>
       <c r="Y21" s="61"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
+    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
       <c r="L22" s="12" t="s">
@@ -8502,9 +8427,9 @@
       <c r="U22" s="1"/>
       <c r="Y22" s="61"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
@@ -8536,7 +8461,7 @@
       <c r="U23" s="1"/>
       <c r="Y23" s="61"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="87"/>
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
@@ -8566,9 +8491,9 @@
       <c r="U24" s="1"/>
       <c r="Y24" s="61"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
@@ -8600,7 +8525,7 @@
       <c r="U25" s="40"/>
       <c r="Y25" s="61"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="87"/>
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
@@ -8630,9 +8555,9 @@
       <c r="U26" s="1"/>
       <c r="Y26" s="61"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="87"/>
       <c r="C27" s="87"/>
@@ -8664,7 +8589,7 @@
       <c r="U27" s="1"/>
       <c r="Y27" s="61"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="87"/>
       <c r="B28" s="87"/>
       <c r="C28" s="87"/>
@@ -8696,9 +8621,9 @@
       <c r="U28" s="1"/>
       <c r="Y28" s="61"/>
     </row>
-    <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="87"/>
       <c r="C29" s="87"/>
@@ -8711,7 +8636,7 @@
       <c r="J29" s="39"/>
       <c r="K29" s="39"/>
       <c r="L29" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M29" s="89"/>
       <c r="N29" s="89"/>
@@ -8723,9 +8648,9 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
@@ -8748,9 +8673,9 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="85"/>
       <c r="C31" s="85"/>
@@ -8763,7 +8688,7 @@
       <c r="J31" s="39"/>
       <c r="K31" s="39"/>
       <c r="L31" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M31" s="59"/>
       <c r="N31" s="59"/>
@@ -8775,7 +8700,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -8788,7 +8713,7 @@
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
       <c r="L32" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M32" s="87"/>
       <c r="N32" s="87"/>
@@ -8800,7 +8725,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -8823,7 +8748,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -8846,7 +8771,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -8859,7 +8784,7 @@
       <c r="J35" s="39"/>
       <c r="K35" s="39"/>
       <c r="L35" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M35" s="87"/>
       <c r="N35" s="87"/>
@@ -8871,7 +8796,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -8894,7 +8819,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -8918,7 +8843,7 @@
       <c r="U37" s="44"/>
       <c r="V37" s="44"/>
     </row>
-    <row r="38" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -8931,7 +8856,7 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M38" s="87"/>
       <c r="N38" s="87"/>
@@ -8941,7 +8866,7 @@
       <c r="R38" s="42"/>
       <c r="S38" s="39"/>
     </row>
-    <row r="39" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -8962,7 +8887,7 @@
       <c r="R39" s="42"/>
       <c r="S39" s="39"/>
     </row>
-    <row r="40" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -8982,20 +8907,20 @@
       <c r="Q40" s="87"/>
       <c r="R40" s="42"/>
       <c r="S40" s="39"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="93"/>
-      <c r="V40" s="93"/>
-      <c r="W40" s="93"/>
-      <c r="X40" s="93"/>
-      <c r="Y40" s="93"/>
-      <c r="Z40" s="93"/>
-      <c r="AA40" s="93"/>
-      <c r="AB40" s="93"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="92"/>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="92"/>
+      <c r="AA40" s="92"/>
+      <c r="AB40" s="92"/>
       <c r="AC40" s="60"/>
       <c r="AD40" s="60"/>
       <c r="AE40" s="60"/>
     </row>
-    <row r="41" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -9008,7 +8933,7 @@
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
       <c r="L41" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M41" s="87"/>
       <c r="N41" s="87"/>
@@ -9017,20 +8942,20 @@
       <c r="Q41" s="87"/>
       <c r="R41" s="42"/>
       <c r="S41" s="39"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="93"/>
-      <c r="V41" s="93"/>
-      <c r="W41" s="93"/>
-      <c r="X41" s="93"/>
-      <c r="Y41" s="93"/>
-      <c r="Z41" s="93"/>
-      <c r="AA41" s="93"/>
-      <c r="AB41" s="93"/>
+      <c r="T41" s="92"/>
+      <c r="U41" s="92"/>
+      <c r="V41" s="92"/>
+      <c r="W41" s="92"/>
+      <c r="X41" s="92"/>
+      <c r="Y41" s="92"/>
+      <c r="Z41" s="92"/>
+      <c r="AA41" s="92"/>
+      <c r="AB41" s="92"/>
       <c r="AC41" s="60"/>
       <c r="AD41" s="60"/>
       <c r="AE41" s="60"/>
     </row>
-    <row r="42" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -9043,7 +8968,7 @@
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
       <c r="L42" s="88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M42" s="88"/>
       <c r="N42" s="88"/>
@@ -9052,20 +8977,20 @@
       <c r="Q42" s="88"/>
       <c r="R42" s="42"/>
       <c r="S42" s="39"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="93"/>
-      <c r="Z42" s="93"/>
-      <c r="AA42" s="93"/>
-      <c r="AB42" s="93"/>
+      <c r="T42" s="92"/>
+      <c r="U42" s="92"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="92"/>
+      <c r="X42" s="92"/>
+      <c r="Y42" s="92"/>
+      <c r="Z42" s="92"/>
+      <c r="AA42" s="92"/>
+      <c r="AB42" s="92"/>
       <c r="AC42" s="60"/>
       <c r="AD42" s="60"/>
       <c r="AE42" s="60"/>
     </row>
-    <row r="43" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -9078,7 +9003,7 @@
       <c r="J43" s="39"/>
       <c r="K43" s="39"/>
       <c r="L43" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M43" s="85"/>
       <c r="N43" s="85"/>
@@ -9087,20 +9012,20 @@
       <c r="Q43" s="85"/>
       <c r="R43" s="42"/>
       <c r="S43" s="39"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
-      <c r="V43" s="93"/>
-      <c r="W43" s="93"/>
-      <c r="X43" s="93"/>
-      <c r="Y43" s="93"/>
-      <c r="Z43" s="93"/>
-      <c r="AA43" s="93"/>
-      <c r="AB43" s="93"/>
+      <c r="T43" s="92"/>
+      <c r="U43" s="92"/>
+      <c r="V43" s="92"/>
+      <c r="W43" s="92"/>
+      <c r="X43" s="92"/>
+      <c r="Y43" s="92"/>
+      <c r="Z43" s="92"/>
+      <c r="AA43" s="92"/>
+      <c r="AB43" s="92"/>
       <c r="AC43" s="60"/>
       <c r="AD43" s="60"/>
       <c r="AE43" s="60"/>
     </row>
-    <row r="44" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -9120,20 +9045,20 @@
       <c r="Q44" s="53"/>
       <c r="R44" s="42"/>
       <c r="S44" s="39"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="93"/>
-      <c r="W44" s="93"/>
-      <c r="X44" s="93"/>
-      <c r="Y44" s="93"/>
-      <c r="Z44" s="93"/>
-      <c r="AA44" s="93"/>
-      <c r="AB44" s="93"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="92"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="92"/>
+      <c r="X44" s="92"/>
+      <c r="Y44" s="92"/>
+      <c r="Z44" s="92"/>
+      <c r="AA44" s="92"/>
+      <c r="AB44" s="92"/>
       <c r="AC44" s="60"/>
       <c r="AD44" s="60"/>
       <c r="AE44" s="60"/>
     </row>
-    <row r="45" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -9153,20 +9078,20 @@
       <c r="Q45" s="55"/>
       <c r="R45" s="42"/>
       <c r="S45" s="39"/>
-      <c r="T45" s="93"/>
-      <c r="U45" s="93"/>
-      <c r="V45" s="93"/>
-      <c r="W45" s="93"/>
-      <c r="X45" s="93"/>
-      <c r="Y45" s="93"/>
-      <c r="Z45" s="93"/>
-      <c r="AA45" s="93"/>
-      <c r="AB45" s="93"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="92"/>
+      <c r="W45" s="92"/>
+      <c r="X45" s="92"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="92"/>
+      <c r="AA45" s="92"/>
+      <c r="AB45" s="92"/>
       <c r="AC45" s="60"/>
       <c r="AD45" s="60"/>
       <c r="AE45" s="60"/>
     </row>
-    <row r="46" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -9186,20 +9111,20 @@
       <c r="Q46" s="50"/>
       <c r="R46" s="42"/>
       <c r="S46" s="39"/>
-      <c r="T46" s="93"/>
-      <c r="U46" s="93"/>
-      <c r="V46" s="93"/>
-      <c r="W46" s="93"/>
-      <c r="X46" s="93"/>
-      <c r="Y46" s="93"/>
-      <c r="Z46" s="93"/>
-      <c r="AA46" s="93"/>
-      <c r="AB46" s="93"/>
+      <c r="T46" s="92"/>
+      <c r="U46" s="92"/>
+      <c r="V46" s="92"/>
+      <c r="W46" s="92"/>
+      <c r="X46" s="92"/>
+      <c r="Y46" s="92"/>
+      <c r="Z46" s="92"/>
+      <c r="AA46" s="92"/>
+      <c r="AB46" s="92"/>
       <c r="AC46" s="60"/>
       <c r="AD46" s="60"/>
       <c r="AE46" s="60"/>
     </row>
-    <row r="47" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -9219,20 +9144,20 @@
       <c r="Q47" s="50"/>
       <c r="R47" s="42"/>
       <c r="S47" s="39"/>
-      <c r="T47" s="93"/>
-      <c r="U47" s="93"/>
-      <c r="V47" s="93"/>
-      <c r="W47" s="93"/>
-      <c r="X47" s="93"/>
-      <c r="Y47" s="93"/>
-      <c r="Z47" s="93"/>
-      <c r="AA47" s="93"/>
-      <c r="AB47" s="93"/>
+      <c r="T47" s="92"/>
+      <c r="U47" s="92"/>
+      <c r="V47" s="92"/>
+      <c r="W47" s="92"/>
+      <c r="X47" s="92"/>
+      <c r="Y47" s="92"/>
+      <c r="Z47" s="92"/>
+      <c r="AA47" s="92"/>
+      <c r="AB47" s="92"/>
       <c r="AC47" s="60"/>
       <c r="AD47" s="60"/>
       <c r="AE47" s="60"/>
     </row>
-    <row r="48" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -9252,20 +9177,20 @@
       <c r="Q48" s="50"/>
       <c r="R48" s="51"/>
       <c r="S48" s="39"/>
-      <c r="T48" s="93"/>
-      <c r="U48" s="93"/>
-      <c r="V48" s="93"/>
-      <c r="W48" s="93"/>
-      <c r="X48" s="93"/>
-      <c r="Y48" s="93"/>
-      <c r="Z48" s="93"/>
-      <c r="AA48" s="93"/>
-      <c r="AB48" s="93"/>
+      <c r="T48" s="92"/>
+      <c r="U48" s="92"/>
+      <c r="V48" s="92"/>
+      <c r="W48" s="92"/>
+      <c r="X48" s="92"/>
+      <c r="Y48" s="92"/>
+      <c r="Z48" s="92"/>
+      <c r="AA48" s="92"/>
+      <c r="AB48" s="92"/>
       <c r="AC48" s="60"/>
       <c r="AD48" s="60"/>
       <c r="AE48" s="60"/>
     </row>
-    <row r="49" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -9298,7 +9223,7 @@
       <c r="AD49" s="60"/>
       <c r="AE49" s="60"/>
     </row>
-    <row r="50" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -9319,7 +9244,7 @@
       <c r="R50" s="56"/>
       <c r="S50" s="51"/>
     </row>
-    <row r="51" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -9340,7 +9265,7 @@
       <c r="R51" s="51"/>
       <c r="S51" s="51"/>
     </row>
-    <row r="52" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -9361,7 +9286,7 @@
       <c r="R52" s="51"/>
       <c r="S52" s="51"/>
     </row>
-    <row r="53" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.15">
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
       <c r="L53" s="52"/>
@@ -9373,7 +9298,7 @@
       <c r="R53" s="51"/>
       <c r="S53" s="51"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.15">
       <c r="J54" s="51"/>
       <c r="K54" s="51"/>
       <c r="L54" s="51"/>
@@ -9385,24 +9310,24 @@
       <c r="R54" s="51"/>
       <c r="S54" s="51"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.15">
       <c r="J55" s="51"/>
       <c r="K55" s="51"/>
       <c r="R55" s="51"/>
       <c r="S55" s="51"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.15">
       <c r="J56" s="51"/>
       <c r="K56" s="51"/>
       <c r="R56" s="51"/>
       <c r="S56" s="51"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.15">
       <c r="J57" s="51"/>
       <c r="K57" s="51"/>
       <c r="S57" s="51"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.15">
       <c r="S58" s="51"/>
     </row>
   </sheetData>
@@ -9410,17 +9335,6 @@
     <sortCondition descending="1" ref="Y5:Y28"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="L1:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="A20:I21"/>
-    <mergeCell ref="L29:Q30"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="L38:Q40"/>
     <mergeCell ref="T40:AB48"/>
     <mergeCell ref="L32:Q34"/>
     <mergeCell ref="L35:Q37"/>
@@ -9429,6 +9343,17 @@
     <mergeCell ref="A23:I24"/>
     <mergeCell ref="A25:I26"/>
     <mergeCell ref="A27:I28"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="L38:Q40"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="L1:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="A20:I21"/>
+    <mergeCell ref="L29:Q30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L43:Q43" r:id="rId1" display="Source: World Values Survey, various waves"/>
@@ -9445,29 +9370,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Country0 xmlns="cd500808-f260-40d5-ba6b-c75db3a09967" xsi:nil="true"/>
-    <subject0 xmlns="CD500808-F260-40D5-BA6B-C75DB3A09967" xsi:nil="true"/>
-    <country xmlns="CD500808-F260-40D5-BA6B-C75DB3A09967" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100080850CD60F2D540BA6BC75DB3A09967" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6975b9819762c0f77c3e06da84da0d6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="CD500808-F260-40D5-BA6B-C75DB3A09967" xmlns:ns3="cd500808-f260-40d5-ba6b-c75db3a09967" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85ab091d1634098b23e5a7a4e1087db1" ns2:_="" ns3:_="">
     <xsd:import namespace="CD500808-F260-40D5-BA6B-C75DB3A09967"/>
@@ -9547,39 +9449,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6FD1D85-CE41-4DEB-94A2-CFD7037EDEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="cd500808-f260-40d5-ba6b-c75db3a09967"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="CD500808-F260-40D5-BA6B-C75DB3A09967"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Country0 xmlns="cd500808-f260-40d5-ba6b-c75db3a09967" xsi:nil="true"/>
+    <subject0 xmlns="CD500808-F260-40D5-BA6B-C75DB3A09967" xsi:nil="true"/>
+    <country xmlns="CD500808-F260-40D5-BA6B-C75DB3A09967" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1169C2CD-239F-4FB8-B58E-055B14FF0DCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B55F289-814A-462F-9EEB-90C3E709200E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6ABDB3B-2C46-421B-84F7-10D6147460F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9595,4 +9488,37 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6FD1D85-CE41-4DEB-94A2-CFD7037EDEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="cd500808-f260-40d5-ba6b-c75db3a09967"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="CD500808-F260-40D5-BA6B-C75DB3A09967"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1169C2CD-239F-4FB8-B58E-055B14FF0DCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B55F289-814A-462F-9EEB-90C3E709200E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>